--- a/output/Result_Iproperty.xlsx
+++ b/output/Result_Iproperty.xlsx
@@ -5201,7 +5201,7 @@
     <t>FamilyMart Petron Setia Impian</t>
   </si>
   <si>
-    <t>Family Mart Ecohill Taipan</t>
+    <t>FamilyMart Ecohill Taipan</t>
   </si>
   <si>
     <t>FamilyMart Alamanda Shopping Centre</t>
@@ -5489,7 +5489,7 @@
     <t>FamilyMart Seksyen 15, Bangi</t>
   </si>
   <si>
-    <t>FamillyMart Malim Jaya</t>
+    <t>FamilyMart Malim Jaya</t>
   </si>
   <si>
     <t>FamilyMart Galleria @ Kotaraya</t>
@@ -10207,12 +10207,13 @@
   <sheetPr/>
   <dimension ref="A1:I3044"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" topLeftCell="A1571" workbookViewId="0">
+      <selection activeCell="A1603" sqref="A1603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="87.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="12.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="12.8888888888889" customWidth="1"/>
   </cols>
